--- a/data/case1/15/Qlm2_14.xlsx
+++ b/data/case1/15/Qlm2_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.19721064429140256</v>
+        <v>-0.22802204078956834</v>
       </c>
       <c r="B1" s="0">
-        <v>0.19710020678926554</v>
+        <v>0.22785410623173163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.15673617108152715</v>
+        <v>-0.14176289238021766</v>
       </c>
       <c r="B2" s="0">
-        <v>0.15634564043168631</v>
+        <v>0.14143234839060259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.08982182643697989</v>
+        <v>-0.078647514933466667</v>
       </c>
       <c r="B3" s="0">
-        <v>0.089467443281451509</v>
+        <v>0.078275346933367018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.081467443402054585</v>
+        <v>-0.07027534696283233</v>
       </c>
       <c r="B4" s="0">
-        <v>0.081173060808941599</v>
+        <v>0.070033264799011619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.078173060877357869</v>
+        <v>-0.06703326481512395</v>
       </c>
       <c r="B5" s="0">
-        <v>0.077184589911423629</v>
+        <v>0.066231669242271529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.01613375907178316</v>
+        <v>-0.04105750762648519</v>
       </c>
       <c r="B6" s="0">
-        <v>0.016033400720191437</v>
+        <v>0.040791357609016643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0060334008885538637</v>
+        <v>-0.030791357649502249</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0060218797347864061</v>
+        <v>0.030737997404816308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0039781200959145835</v>
+        <v>-0.020737997446487633</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.003981344979365975</v>
+        <v>0.020672225126570076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0059813449047099176</v>
+        <v>-0.018672225145955235</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.00598286970854911</v>
+        <v>0.018626224237523026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0079828696347661321</v>
+        <v>-0.016626224258038391</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0079822814994692237</v>
+        <v>0.016623837876950986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.010982281413961736</v>
+        <v>-0.013623837900113678</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.010982370208526326</v>
+        <v>0.01362110823837881</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.014482370117570476</v>
+        <v>0.0067013197915435363</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0145141297717295</v>
+        <v>-0.0067349296527514646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.01801412968520566</v>
+        <v>0.010234929628353484</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.018047813052270989</v>
+        <v>-0.010248701156681861</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.026047812914727686</v>
+        <v>0.018248701119323307</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.026105715930876627</v>
+        <v>-0.01826002240122282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.027105715878813719</v>
+        <v>0.019260022384982811</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.027182862031111199</v>
+        <v>-0.019273655062618467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060316672011246908</v>
+        <v>-0.0060330508073080935</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060027833624460847</v>
+        <v>0.0060034417576408927</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040027834238358651</v>
+        <v>-0.0040034417765495434</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999146118626</v>
+        <v>0.003999999975077273</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.03436403578094982</v>
+        <v>-0.080091213870076672</v>
       </c>
       <c r="B18" s="0">
-        <v>0.034329226108770428</v>
+        <v>0.079933837319792644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090184640746848</v>
+        <v>-0.075933837333117982</v>
       </c>
       <c r="B19" s="0">
-        <v>0.01201546462837122</v>
+        <v>0.074754357793452186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080154646823800135</v>
+        <v>-0.0080173538603673933</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080054561038096494</v>
+        <v>0.008005787088785965</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040054561584508264</v>
+        <v>-0.0040057871085990016</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999448880885</v>
+        <v>0.0039999999800564012</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.062523814061439253</v>
+        <v>-0.058784833473422893</v>
       </c>
       <c r="B22" s="0">
-        <v>0.062173437483773242</v>
+        <v>0.058442859367694666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.057173437568289742</v>
+        <v>-0.053442859388263209</v>
       </c>
       <c r="B23" s="0">
-        <v>0.056483239039640587</v>
+        <v>0.052772868466474776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097809024568924</v>
+        <v>-0.020098159941107419</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999722868367</v>
+        <v>0.019999999931815005</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.059050830913111696</v>
+        <v>-0.023174161632306678</v>
       </c>
       <c r="B25" s="0">
-        <v>0.05899764500636806</v>
+        <v>0.023161838494262454</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.056497645088125381</v>
+        <v>-0.020661838512406661</v>
       </c>
       <c r="B26" s="0">
-        <v>0.056430442473951459</v>
+        <v>0.020648847146746974</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.053930442559229075</v>
+        <v>-0.018148847165163406</v>
       </c>
       <c r="B27" s="0">
-        <v>0.053539871736528521</v>
+        <v>0.018087312259057686</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.051539871830581063</v>
+        <v>-0.016087312277070609</v>
       </c>
       <c r="B28" s="0">
-        <v>0.051287955544746744</v>
+        <v>0.016057021759129597</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.044287955707851268</v>
+        <v>-0.0090570217925414198</v>
       </c>
       <c r="B29" s="0">
-        <v>0.044226991876734623</v>
+        <v>0.0090548389415134878</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.015773007331713274</v>
+        <v>-0.021161288379106136</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.015816547150900639</v>
+        <v>0.021022519131564277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.033531446491652517</v>
+        <v>-0.014022519166323022</v>
       </c>
       <c r="B31" s="0">
-        <v>0.033474069361865588</v>
+        <v>0.014001329549424568</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040006601989013291</v>
+        <v>-0.0040013295932386228</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998677728854</v>
+        <v>0.003999999973768098</v>
       </c>
     </row>
   </sheetData>
